--- a/data/Attributes_Table.xlsx
+++ b/data/Attributes_Table.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\1_Projects\18033_ARCH504_Studio\ARCH504_P+W_Studio_2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tmendeze/Documents/UW/02_teaching/00_courses/mendez_meek_2021/02_code/studio2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C917C7F-5B62-3B40-B6EC-C87AFEFDE1A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24015" windowHeight="13815"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="22020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="8" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -417,7 +418,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -713,26 +714,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1020,36 +1021,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B3:U59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="54.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="54.5" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" customWidth="1"/>
-    <col min="19" max="19" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" customWidth="1"/>
+    <col min="12" max="12" width="28" customWidth="1"/>
+    <col min="13" max="13" width="11.5" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
+    <col min="15" max="15" width="20.1640625" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" customWidth="1"/>
+    <col min="19" max="19" width="20.33203125" customWidth="1"/>
     <col min="21" max="21" width="19" customWidth="1"/>
-    <col min="22" max="22" width="12.28515625" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:21" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:21" ht="19" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>25</v>
       </c>
@@ -1064,7 +1065,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="2:21" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:21" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1075,7 +1076,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="2:21" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:21" ht="21" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1085,7 +1086,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:21" ht="42" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:21" ht="44" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
@@ -1106,11 +1107,11 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="2:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="47" t="s">
+    <row r="7" spans="2:21" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="48"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="39"/>
       <c r="E7" s="39">
         <v>50000</v>
@@ -1135,14 +1136,14 @@
       <c r="T7" s="18"/>
       <c r="U7" s="18"/>
     </row>
-    <row r="8" spans="2:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="B8" s="50" t="s">
+    <row r="8" spans="2:21" ht="21" x14ac:dyDescent="0.25">
+      <c r="B8" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="51"/>
+      <c r="C8" s="48"/>
       <c r="D8" s="40"/>
       <c r="E8" s="40">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
@@ -1166,18 +1167,18 @@
       <c r="T8" s="18"/>
       <c r="U8" s="18"/>
     </row>
-    <row r="9" spans="2:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="B9" s="50" t="s">
+    <row r="9" spans="2:21" ht="21" x14ac:dyDescent="0.25">
+      <c r="B9" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="51"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="10">
         <f>D7*D8</f>
         <v>0</v>
       </c>
       <c r="E9" s="10">
         <f t="shared" ref="E9:G9" si="0">E7*E8</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="F9" s="10">
         <f t="shared" si="0"/>
@@ -1207,14 +1208,14 @@
       <c r="T9" s="18"/>
       <c r="U9" s="18"/>
     </row>
-    <row r="10" spans="2:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="50" t="s">
+    <row r="10" spans="2:21" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="51"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="40"/>
       <c r="E10" s="40">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
@@ -1238,18 +1239,18 @@
       <c r="T10" s="18"/>
       <c r="U10" s="18"/>
     </row>
-    <row r="11" spans="2:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="B11" s="50" t="s">
+    <row r="11" spans="2:21" ht="21" x14ac:dyDescent="0.25">
+      <c r="B11" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="51"/>
+      <c r="C11" s="48"/>
       <c r="D11" s="10">
         <f>D7*D10</f>
         <v>0</v>
       </c>
       <c r="E11" s="10">
         <f t="shared" ref="E11:G11" si="1">E7*E10</f>
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="F11" s="10">
         <f t="shared" si="1"/>
@@ -1275,14 +1276,14 @@
       <c r="T11" s="18"/>
       <c r="U11" s="18"/>
     </row>
-    <row r="12" spans="2:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="50" t="s">
+    <row r="12" spans="2:21" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="51"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
@@ -1306,18 +1307,18 @@
       <c r="T12" s="18"/>
       <c r="U12" s="18"/>
     </row>
-    <row r="13" spans="2:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="B13" s="50" t="s">
+    <row r="13" spans="2:21" ht="21" x14ac:dyDescent="0.25">
+      <c r="B13" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="51"/>
+      <c r="C13" s="48"/>
       <c r="D13" s="10">
         <f>D7*D12</f>
         <v>0</v>
       </c>
       <c r="E13" s="10">
         <f t="shared" ref="E13:G13" si="2">E7*E12</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="F13" s="10">
         <f t="shared" si="2"/>
@@ -1351,18 +1352,18 @@
       <c r="T13" s="18"/>
       <c r="U13" s="18"/>
     </row>
-    <row r="14" spans="2:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="B14" s="50" t="s">
+    <row r="14" spans="2:21" ht="21" x14ac:dyDescent="0.25">
+      <c r="B14" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="51"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="9">
         <f>D11/$M$8</f>
         <v>0</v>
       </c>
       <c r="E14" s="9">
         <f>E11/$M$8</f>
-        <v>357.14285714285717</v>
+        <v>214.28571428571428</v>
       </c>
       <c r="F14" s="9">
         <f>F11/$M$8</f>
@@ -1398,18 +1399,18 @@
       <c r="T14" s="18"/>
       <c r="U14" s="18"/>
     </row>
-    <row r="15" spans="2:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="B15" s="50" t="s">
+    <row r="15" spans="2:21" ht="21" x14ac:dyDescent="0.25">
+      <c r="B15" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="51"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="9">
         <f>D13/$M$9</f>
         <v>0</v>
       </c>
       <c r="E15" s="9">
         <f>E13/$M$9</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F15" s="9">
         <f>F13/$M$9</f>
@@ -1445,18 +1446,18 @@
       <c r="T15" s="18"/>
       <c r="U15" s="18"/>
     </row>
-    <row r="16" spans="2:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="50" t="s">
+    <row r="16" spans="2:21" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="51"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="9">
         <f>D14/$M$10</f>
         <v>0</v>
       </c>
       <c r="E16" s="9">
         <f>E14/$M$10</f>
-        <v>0.64935064935064934</v>
+        <v>0.38961038961038957</v>
       </c>
       <c r="F16" s="9">
         <f>F14/$M$10</f>
@@ -1492,11 +1493,11 @@
       <c r="T16" s="18"/>
       <c r="U16" s="18"/>
     </row>
-    <row r="17" spans="2:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="B17" s="47" t="s">
+    <row r="17" spans="2:21" ht="21" x14ac:dyDescent="0.25">
+      <c r="B17" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="48"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="39"/>
       <c r="E17" s="39">
         <v>10000</v>
@@ -1527,11 +1528,11 @@
       <c r="T17" s="18"/>
       <c r="U17" s="18"/>
     </row>
-    <row r="18" spans="2:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="B18" s="50" t="s">
+    <row r="18" spans="2:21" ht="21" x14ac:dyDescent="0.25">
+      <c r="B18" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="51"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="40"/>
       <c r="E18" s="40">
         <v>0.05</v>
@@ -1554,11 +1555,11 @@
       <c r="T18" s="18"/>
       <c r="U18" s="18"/>
     </row>
-    <row r="19" spans="2:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="B19" s="50" t="s">
+    <row r="19" spans="2:21" ht="21" x14ac:dyDescent="0.25">
+      <c r="B19" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="51"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="10">
         <f>D18*D17</f>
         <v>0</v>
@@ -1591,11 +1592,11 @@
       <c r="T19" s="18"/>
       <c r="U19" s="18"/>
     </row>
-    <row r="20" spans="2:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="B20" s="50" t="s">
+    <row r="20" spans="2:21" ht="21" x14ac:dyDescent="0.25">
+      <c r="B20" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="51"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40">
         <v>1.2</v>
@@ -1618,11 +1619,11 @@
       <c r="T20" s="18"/>
       <c r="U20" s="18"/>
     </row>
-    <row r="21" spans="2:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="B21" s="50" t="s">
+    <row r="21" spans="2:21" ht="21" x14ac:dyDescent="0.25">
+      <c r="B21" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="51"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="10">
         <f>D20*D17</f>
         <v>0</v>
@@ -1655,11 +1656,11 @@
       <c r="T21" s="18"/>
       <c r="U21" s="18"/>
     </row>
-    <row r="22" spans="2:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="B22" s="50" t="s">
+    <row r="22" spans="2:21" ht="21" x14ac:dyDescent="0.25">
+      <c r="B22" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="51"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="10">
         <f>0.9*D21</f>
         <v>0</v>
@@ -1692,11 +1693,11 @@
       <c r="T22" s="18"/>
       <c r="U22" s="18"/>
     </row>
-    <row r="23" spans="2:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="B23" s="50" t="s">
+    <row r="23" spans="2:21" ht="21" x14ac:dyDescent="0.25">
+      <c r="B23" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="51"/>
+      <c r="C23" s="48"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40">
         <v>0.05</v>
@@ -1719,11 +1720,11 @@
       <c r="T23" s="18"/>
       <c r="U23" s="18"/>
     </row>
-    <row r="24" spans="2:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="B24" s="50" t="s">
+    <row r="24" spans="2:21" ht="21" x14ac:dyDescent="0.25">
+      <c r="B24" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="50"/>
+      <c r="C24" s="47"/>
       <c r="D24" s="44">
         <f>D23*D17</f>
         <v>0</v>
@@ -1756,7 +1757,7 @@
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
     </row>
-    <row r="25" spans="2:21" ht="21" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:21" ht="21" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1776,7 +1777,7 @@
       <c r="T25" s="18"/>
       <c r="U25" s="18"/>
     </row>
-    <row r="26" spans="2:21" ht="21" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:21" ht="21" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>2</v>
       </c>
@@ -1799,18 +1800,18 @@
       <c r="T26" s="18"/>
       <c r="U26" s="18"/>
     </row>
-    <row r="27" spans="2:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="B27" s="47" t="s">
+    <row r="27" spans="2:21" ht="21" x14ac:dyDescent="0.25">
+      <c r="B27" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="48"/>
+      <c r="C27" s="46"/>
       <c r="D27" s="8" t="e">
         <f>D28/D7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E27" s="8">
         <f>E28/E7</f>
-        <v>15</v>
+        <v>16.125</v>
       </c>
       <c r="F27" s="8" t="e">
         <f>F28/F7</f>
@@ -1836,18 +1837,18 @@
       <c r="T27" s="18"/>
       <c r="U27" s="18"/>
     </row>
-    <row r="28" spans="2:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="B28" s="47" t="s">
+    <row r="28" spans="2:21" ht="21" x14ac:dyDescent="0.25">
+      <c r="B28" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="48"/>
+      <c r="C28" s="46"/>
       <c r="D28" s="10">
         <f>(D9*$M$14)+(D11*$M$15)+(D13*$M$16)</f>
         <v>0</v>
       </c>
       <c r="E28" s="10">
         <f>(E9*$O$14)+(E11*$O$15)+(E13*$O$16)</f>
-        <v>750000</v>
+        <v>806250</v>
       </c>
       <c r="F28" s="10">
         <f>(F9*$M$14)+(F11*$M$15)+(F13*$M$16)</f>
@@ -1879,7 +1880,7 @@
       <c r="T28" s="18"/>
       <c r="U28" s="18"/>
     </row>
-    <row r="29" spans="2:21" ht="21" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:21" ht="21" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1912,7 +1913,7 @@
       <c r="T29" s="18"/>
       <c r="U29" s="18"/>
     </row>
-    <row r="30" spans="2:21" ht="21" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:21" ht="21" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1939,7 +1940,7 @@
       <c r="T30" s="18"/>
       <c r="U30" s="18"/>
     </row>
-    <row r="31" spans="2:21" ht="21" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:21" ht="21" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>4</v>
       </c>
@@ -1969,11 +1970,11 @@
       <c r="T31" s="18"/>
       <c r="U31" s="18"/>
     </row>
-    <row r="32" spans="2:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="47" t="s">
+    <row r="32" spans="2:21" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="48"/>
+      <c r="C32" s="46"/>
       <c r="D32" s="41">
         <f>D22*$L$33</f>
         <v>0</v>
@@ -1983,7 +1984,7 @@
         <v>863693.63193638006</v>
       </c>
       <c r="F32" s="10">
-        <f t="shared" ref="E32:G32" si="8">F22*$L$33</f>
+        <f t="shared" ref="F32:G32" si="8">F22*$L$33</f>
         <v>0</v>
       </c>
       <c r="G32" s="10">
@@ -2013,11 +2014,11 @@
       <c r="T32" s="18"/>
       <c r="U32" s="18"/>
     </row>
-    <row r="33" spans="2:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="47" t="s">
+    <row r="33" spans="2:21" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="48"/>
+      <c r="C33" s="46"/>
       <c r="D33" s="41" t="e">
         <f>D32/D7</f>
         <v>#DIV/0!</v>
@@ -2057,21 +2058,21 @@
       <c r="T33" s="18"/>
       <c r="U33" s="18"/>
     </row>
-    <row r="34" spans="2:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="B34" s="47" t="s">
+    <row r="34" spans="2:21" ht="21" x14ac:dyDescent="0.25">
+      <c r="B34" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="48"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="10">
         <f>D28/$L$33</f>
         <v>0</v>
       </c>
       <c r="E34" s="10">
-        <f t="shared" ref="E34:G34" si="9">E28/$L$33</f>
-        <v>9378.325485438625</v>
+        <f>E28/$L$33</f>
+        <v>10081.699896846521</v>
       </c>
       <c r="F34" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="E34:G34" si="9">F28/$L$33</f>
         <v>0</v>
       </c>
       <c r="G34" s="10">
@@ -2094,7 +2095,7 @@
       <c r="T34" s="18"/>
       <c r="U34" s="18"/>
     </row>
-    <row r="35" spans="2:21" ht="21" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:21" ht="21" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2110,16 +2111,16 @@
       <c r="O35" s="18"/>
       <c r="P35" s="18"/>
       <c r="Q35" s="18"/>
-      <c r="R35" s="45" t="s">
+      <c r="R35" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="S35" s="45"/>
-      <c r="T35" s="45" t="s">
+      <c r="S35" s="50"/>
+      <c r="T35" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="U35" s="45"/>
-    </row>
-    <row r="36" spans="2:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="U35" s="50"/>
+    </row>
+    <row r="36" spans="2:21" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -2148,7 +2149,7 @@
       </c>
       <c r="U36" s="17"/>
     </row>
-    <row r="37" spans="2:21" ht="21" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:21" ht="21" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>7</v>
       </c>
@@ -2190,18 +2191,18 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="2:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="B38" s="47" t="s">
+    <row r="38" spans="2:21" ht="21" x14ac:dyDescent="0.25">
+      <c r="B38" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="48"/>
+      <c r="C38" s="46"/>
       <c r="D38" s="41">
         <f>((D9*$M$37)+(D11*$M$38)+(D13*$M$39))/1000</f>
         <v>0</v>
       </c>
       <c r="E38" s="41">
         <f>((E9*$M$37)+(E11*$M$38)+(E13*$M$39))/1000</f>
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="F38" s="41">
         <f>((F9*$M$37)+(F11*$M$38)+(F13*$M$39))/1000</f>
@@ -2246,11 +2247,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="2:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="B39" s="47" t="s">
+    <row r="39" spans="2:21" ht="21" x14ac:dyDescent="0.25">
+      <c r="B39" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="48"/>
+      <c r="C39" s="46"/>
       <c r="D39" s="41">
         <f>D24*$M$40/1000</f>
         <v>0</v>
@@ -2289,21 +2290,21 @@
       <c r="T39" s="25"/>
       <c r="U39" s="26"/>
     </row>
-    <row r="40" spans="2:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="47" t="s">
+    <row r="40" spans="2:21" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="48"/>
+      <c r="C40" s="46"/>
       <c r="D40" s="41">
         <f>($R$37*D14)+($R$38*D15)</f>
         <v>0</v>
       </c>
       <c r="E40" s="41">
         <f>($T$37*E14)+($T$38*E15)</f>
-        <v>203.57142857142856</v>
+        <v>162.14285714285711</v>
       </c>
       <c r="F40" s="41">
-        <f t="shared" ref="E40:G40" si="11">($R$37*F14)+($R$38*F15)</f>
+        <f t="shared" ref="F40:G40" si="11">($R$37*F14)+($R$38*F15)</f>
         <v>0</v>
       </c>
       <c r="G40" s="41">
@@ -2332,7 +2333,7 @@
       <c r="T40" s="28"/>
       <c r="U40" s="29"/>
     </row>
-    <row r="41" spans="2:21" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:21" ht="19" x14ac:dyDescent="0.25">
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="L41" s="18"/>
@@ -2346,7 +2347,7 @@
       <c r="T41" s="18"/>
       <c r="U41" s="18"/>
     </row>
-    <row r="42" spans="2:21" ht="21" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:21" ht="21" x14ac:dyDescent="0.25">
       <c r="B42" s="11"/>
       <c r="C42" s="15"/>
       <c r="D42" s="14"/>
@@ -2367,7 +2368,7 @@
       <c r="T42" s="18"/>
       <c r="U42" s="18"/>
     </row>
-    <row r="43" spans="2:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:21" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
         <v>8</v>
       </c>
@@ -2385,20 +2386,20 @@
       <c r="O43" s="18"/>
       <c r="P43" s="18"/>
       <c r="Q43" s="18"/>
-      <c r="R43" s="45" t="s">
+      <c r="R43" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="S43" s="45"/>
-      <c r="T43" s="46" t="s">
+      <c r="S43" s="50"/>
+      <c r="T43" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="U43" s="46"/>
-    </row>
-    <row r="44" spans="2:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="47" t="s">
+      <c r="U43" s="51"/>
+    </row>
+    <row r="44" spans="2:21" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="48"/>
+      <c r="C44" s="46"/>
       <c r="D44" s="41">
         <f>((D21*0.9+D24*0.6)*144*37.5)/231/1000</f>
         <v>0</v>
@@ -2441,18 +2442,18 @@
       </c>
       <c r="U44" s="17"/>
     </row>
-    <row r="45" spans="2:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="B45" s="47" t="s">
+    <row r="45" spans="2:21" ht="21" x14ac:dyDescent="0.25">
+      <c r="B45" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="48"/>
+      <c r="C45" s="46"/>
       <c r="D45" s="7" t="e">
         <f>(D44)/(D39+D40)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E45" s="7">
         <f t="shared" ref="E45:G45" si="12">(E44)/(E39+E40)</f>
-        <v>1.1101212910299458</v>
+        <v>1.3854442829043019</v>
       </c>
       <c r="F45" s="7" t="e">
         <f t="shared" si="12"/>
@@ -2492,18 +2493,18 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="2:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="47" t="s">
+    <row r="46" spans="2:21" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="48"/>
+      <c r="C46" s="46"/>
       <c r="D46" s="41">
         <f>$R$45*D14</f>
         <v>0</v>
       </c>
       <c r="E46" s="41">
         <f>$T$45*E14</f>
-        <v>117.14285714285715</v>
+        <v>70.285714285714292</v>
       </c>
       <c r="F46" s="41">
         <f>$R$45*F14</f>
@@ -2541,18 +2542,18 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="2:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="B47" s="47" t="s">
+    <row r="47" spans="2:21" ht="21" x14ac:dyDescent="0.25">
+      <c r="B47" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="48"/>
+      <c r="C47" s="46"/>
       <c r="D47" s="7" t="e">
         <f>(D46)/(D39+D40)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E47" s="7">
         <f t="shared" ref="E47:G47" si="13">(E46)/(E39+E40)</f>
-        <v>0.56191324607688631</v>
+        <v>0.42076455999315843</v>
       </c>
       <c r="F47" s="7" t="e">
         <f t="shared" si="13"/>
@@ -2576,7 +2577,7 @@
       <c r="T47" s="19"/>
       <c r="U47" s="26"/>
     </row>
-    <row r="48" spans="2:21" ht="21" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:21" ht="21" x14ac:dyDescent="0.25">
       <c r="B48" s="11"/>
       <c r="C48" s="15"/>
       <c r="D48" s="1"/>
@@ -2597,7 +2598,7 @@
       <c r="T48" s="19"/>
       <c r="U48" s="26"/>
     </row>
-    <row r="49" spans="2:21" ht="21" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:21" ht="21" x14ac:dyDescent="0.25">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -2617,7 +2618,7 @@
       <c r="T49" s="19"/>
       <c r="U49" s="26"/>
     </row>
-    <row r="50" spans="2:21" ht="21" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:21" ht="21" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>10</v>
       </c>
@@ -2640,21 +2641,21 @@
       <c r="T50" s="27"/>
       <c r="U50" s="29"/>
     </row>
-    <row r="51" spans="2:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="47" t="s">
+    <row r="51" spans="2:21" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="48"/>
+      <c r="C51" s="46"/>
       <c r="D51" s="43">
         <f>($M$52*D13*12)+($M$53*D11)</f>
         <v>0</v>
       </c>
       <c r="E51" s="43">
-        <f t="shared" ref="E51:G51" si="14">($M$52*E13*12)+($M$53*E11)</f>
-        <v>2500000</v>
+        <f>($M$52*E13*12)+($M$53*E11)</f>
+        <v>2100000</v>
       </c>
       <c r="F51" s="43">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="E51:G51" si="14">($M$52*F13*12)+($M$53*F11)</f>
         <v>0</v>
       </c>
       <c r="G51" s="43">
@@ -2679,18 +2680,18 @@
       <c r="T51" s="18"/>
       <c r="U51" s="18"/>
     </row>
-    <row r="52" spans="2:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="B52" s="47" t="s">
+    <row r="52" spans="2:21" ht="21" x14ac:dyDescent="0.25">
+      <c r="B52" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C52" s="48"/>
+      <c r="C52" s="46"/>
       <c r="D52" s="43" t="e">
         <f>D51/((D13+D11)*0.85)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E52" s="43">
         <f>E51/((E13+E11)*0.85)</f>
-        <v>58.823529411764703</v>
+        <v>61.764705882352942</v>
       </c>
       <c r="F52" s="43" t="e">
         <f>F51/((F13+F11)*0.85)</f>
@@ -2722,21 +2723,21 @@
       <c r="T52" s="18"/>
       <c r="U52" s="18"/>
     </row>
-    <row r="53" spans="2:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="B53" s="47" t="s">
+    <row r="53" spans="2:21" ht="21" x14ac:dyDescent="0.25">
+      <c r="B53" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="C53" s="48"/>
+      <c r="C53" s="46"/>
       <c r="D53" s="43">
         <f>$M$54*D11</f>
         <v>0</v>
       </c>
       <c r="E53" s="43">
         <f>$M$54*E11*1.07</f>
-        <v>20062500</v>
+        <v>12037500</v>
       </c>
       <c r="F53" s="43">
-        <f t="shared" ref="E53:G53" si="15">$M$54*F11</f>
+        <f t="shared" ref="F53:G53" si="15">$M$54*F11</f>
         <v>0</v>
       </c>
       <c r="G53" s="43">
@@ -2763,21 +2764,21 @@
       <c r="T53" s="18"/>
       <c r="U53" s="18"/>
     </row>
-    <row r="54" spans="2:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="B54" s="47" t="s">
+    <row r="54" spans="2:21" ht="21" x14ac:dyDescent="0.25">
+      <c r="B54" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="C54" s="48"/>
+      <c r="C54" s="46"/>
       <c r="D54" s="43">
         <f>$M$55*D13</f>
         <v>0</v>
       </c>
       <c r="E54" s="43">
-        <f t="shared" ref="E54:G54" si="16">$M$55*E13</f>
-        <v>0</v>
+        <f>$M$55*E13</f>
+        <v>2850000</v>
       </c>
       <c r="F54" s="43">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="E54:G54" si="16">$M$55*F13</f>
         <v>0</v>
       </c>
       <c r="G54" s="43">
@@ -2804,7 +2805,7 @@
       <c r="T54" s="18"/>
       <c r="U54" s="18"/>
     </row>
-    <row r="55" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L55" s="27" t="s">
         <v>80</v>
       </c>
@@ -2821,7 +2822,7 @@
       <c r="T55" s="18"/>
       <c r="U55" s="18"/>
     </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:21" x14ac:dyDescent="0.2">
       <c r="L56" s="18"/>
       <c r="P56" s="18"/>
       <c r="Q56" s="18"/>
@@ -2830,36 +2831,37 @@
       <c r="T56" s="18"/>
       <c r="U56" s="18"/>
     </row>
-    <row r="57" spans="2:21" ht="21" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:21" ht="21" x14ac:dyDescent="0.25">
       <c r="C57" s="11"/>
     </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:21" x14ac:dyDescent="0.2">
       <c r="M58" s="38" t="s">
         <v>90</v>
       </c>
       <c r="N58" s="18"/>
     </row>
-    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:21" x14ac:dyDescent="0.2">
       <c r="M59" s="18" t="s">
         <v>103</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
@@ -2870,27 +2872,26 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B40:C40"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="M36" r:id="rId1"/>
-    <hyperlink ref="M58" r:id="rId2"/>
-    <hyperlink ref="O29" r:id="rId3"/>
-    <hyperlink ref="M12" r:id="rId4"/>
+    <hyperlink ref="M36" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M58" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="O29" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
@@ -2898,12 +2899,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Attributes_Table.xlsx
+++ b/data/Attributes_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tmendeze/Documents/UW/02_teaching/00_courses/mendez_meek_2021/02_code/studio2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C917C7F-5B62-3B40-B6EC-C87AFEFDE1A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82057922-E387-3F44-912B-30482BDAADF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="22020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -714,26 +714,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1027,8 +1027,8 @@
   </sheetPr>
   <dimension ref="B3:U59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1108,10 +1108,10 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="2:21" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="46"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="39"/>
       <c r="E7" s="39">
         <v>50000</v>
@@ -1137,10 +1137,10 @@
       <c r="U7" s="18"/>
     </row>
     <row r="8" spans="2:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="48"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="40"/>
       <c r="E8" s="40">
         <v>0.2</v>
@@ -1168,10 +1168,10 @@
       <c r="U8" s="18"/>
     </row>
     <row r="9" spans="2:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="48"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="10">
         <f>D7*D8</f>
         <v>0</v>
@@ -1209,10 +1209,10 @@
       <c r="U9" s="18"/>
     </row>
     <row r="10" spans="2:21" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="48"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="40"/>
       <c r="E10" s="40">
         <v>0.6</v>
@@ -1240,10 +1240,10 @@
       <c r="U10" s="18"/>
     </row>
     <row r="11" spans="2:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="48"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="10">
         <f>D7*D10</f>
         <v>0</v>
@@ -1277,10 +1277,10 @@
       <c r="U11" s="18"/>
     </row>
     <row r="12" spans="2:21" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="48"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40">
         <v>0.2</v>
@@ -1308,10 +1308,10 @@
       <c r="U12" s="18"/>
     </row>
     <row r="13" spans="2:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="48"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="10">
         <f>D7*D12</f>
         <v>0</v>
@@ -1353,10 +1353,10 @@
       <c r="U13" s="18"/>
     </row>
     <row r="14" spans="2:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="48"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="9">
         <f>D11/$M$8</f>
         <v>0</v>
@@ -1400,10 +1400,10 @@
       <c r="U14" s="18"/>
     </row>
     <row r="15" spans="2:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="48"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="9">
         <f>D13/$M$9</f>
         <v>0</v>
@@ -1447,10 +1447,10 @@
       <c r="U15" s="18"/>
     </row>
     <row r="16" spans="2:21" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="48"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="9">
         <f>D14/$M$10</f>
         <v>0</v>
@@ -1494,10 +1494,10 @@
       <c r="U16" s="18"/>
     </row>
     <row r="17" spans="2:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="46"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="39"/>
       <c r="E17" s="39">
         <v>10000</v>
@@ -1529,10 +1529,10 @@
       <c r="U17" s="18"/>
     </row>
     <row r="18" spans="2:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="48"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="40"/>
       <c r="E18" s="40">
         <v>0.05</v>
@@ -1556,10 +1556,10 @@
       <c r="U18" s="18"/>
     </row>
     <row r="19" spans="2:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="48"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="10">
         <f>D18*D17</f>
         <v>0</v>
@@ -1593,10 +1593,10 @@
       <c r="U19" s="18"/>
     </row>
     <row r="20" spans="2:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="48"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40">
         <v>1.2</v>
@@ -1620,10 +1620,10 @@
       <c r="U20" s="18"/>
     </row>
     <row r="21" spans="2:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="48"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="10">
         <f>D20*D17</f>
         <v>0</v>
@@ -1657,10 +1657,10 @@
       <c r="U21" s="18"/>
     </row>
     <row r="22" spans="2:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="48"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="10">
         <f>0.9*D21</f>
         <v>0</v>
@@ -1694,10 +1694,10 @@
       <c r="U22" s="18"/>
     </row>
     <row r="23" spans="2:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="48"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40">
         <v>0.05</v>
@@ -1721,10 +1721,10 @@
       <c r="U23" s="18"/>
     </row>
     <row r="24" spans="2:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="47"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="44">
         <f>D23*D17</f>
         <v>0</v>
@@ -1801,10 +1801,10 @@
       <c r="U26" s="18"/>
     </row>
     <row r="27" spans="2:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="46"/>
+      <c r="C27" s="48"/>
       <c r="D27" s="8" t="e">
         <f>D28/D7</f>
         <v>#DIV/0!</v>
@@ -1838,10 +1838,10 @@
       <c r="U27" s="18"/>
     </row>
     <row r="28" spans="2:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="46"/>
+      <c r="C28" s="48"/>
       <c r="D28" s="10">
         <f>(D9*$M$14)+(D11*$M$15)+(D13*$M$16)</f>
         <v>0</v>
@@ -1971,10 +1971,10 @@
       <c r="U31" s="18"/>
     </row>
     <row r="32" spans="2:21" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="46"/>
+      <c r="C32" s="48"/>
       <c r="D32" s="41">
         <f>D22*$L$33</f>
         <v>0</v>
@@ -2015,10 +2015,10 @@
       <c r="U32" s="18"/>
     </row>
     <row r="33" spans="2:21" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="46"/>
+      <c r="C33" s="48"/>
       <c r="D33" s="41" t="e">
         <f>D32/D7</f>
         <v>#DIV/0!</v>
@@ -2059,10 +2059,10 @@
       <c r="U33" s="18"/>
     </row>
     <row r="34" spans="2:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="46"/>
+      <c r="C34" s="48"/>
       <c r="D34" s="10">
         <f>D28/$L$33</f>
         <v>0</v>
@@ -2072,7 +2072,7 @@
         <v>10081.699896846521</v>
       </c>
       <c r="F34" s="10">
-        <f t="shared" ref="E34:G34" si="9">F28/$L$33</f>
+        <f t="shared" ref="F34:G34" si="9">F28/$L$33</f>
         <v>0</v>
       </c>
       <c r="G34" s="10">
@@ -2111,14 +2111,14 @@
       <c r="O35" s="18"/>
       <c r="P35" s="18"/>
       <c r="Q35" s="18"/>
-      <c r="R35" s="50" t="s">
+      <c r="R35" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="S35" s="50"/>
-      <c r="T35" s="50" t="s">
+      <c r="S35" s="45"/>
+      <c r="T35" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="U35" s="50"/>
+      <c r="U35" s="45"/>
     </row>
     <row r="36" spans="2:21" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C36" s="1"/>
@@ -2192,10 +2192,10 @@
       </c>
     </row>
     <row r="38" spans="2:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="46"/>
+      <c r="C38" s="48"/>
       <c r="D38" s="41">
         <f>((D9*$M$37)+(D11*$M$38)+(D13*$M$39))/1000</f>
         <v>0</v>
@@ -2248,10 +2248,10 @@
       </c>
     </row>
     <row r="39" spans="2:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="46"/>
+      <c r="C39" s="48"/>
       <c r="D39" s="41">
         <f>D24*$M$40/1000</f>
         <v>0</v>
@@ -2291,10 +2291,10 @@
       <c r="U39" s="26"/>
     </row>
     <row r="40" spans="2:21" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="46"/>
+      <c r="C40" s="48"/>
       <c r="D40" s="41">
         <f>($R$37*D14)+($R$38*D15)</f>
         <v>0</v>
@@ -2386,20 +2386,20 @@
       <c r="O43" s="18"/>
       <c r="P43" s="18"/>
       <c r="Q43" s="18"/>
-      <c r="R43" s="50" t="s">
+      <c r="R43" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="S43" s="50"/>
-      <c r="T43" s="51" t="s">
+      <c r="S43" s="45"/>
+      <c r="T43" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="U43" s="51"/>
+      <c r="U43" s="46"/>
     </row>
     <row r="44" spans="2:21" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="46"/>
+      <c r="C44" s="48"/>
       <c r="D44" s="41">
         <f>((D21*0.9+D24*0.6)*144*37.5)/231/1000</f>
         <v>0</v>
@@ -2443,10 +2443,10 @@
       <c r="U44" s="17"/>
     </row>
     <row r="45" spans="2:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="B45" s="45" t="s">
+      <c r="B45" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="46"/>
+      <c r="C45" s="48"/>
       <c r="D45" s="7" t="e">
         <f>(D44)/(D39+D40)</f>
         <v>#DIV/0!</v>
@@ -2494,10 +2494,10 @@
       </c>
     </row>
     <row r="46" spans="2:21" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="45" t="s">
+      <c r="B46" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="46"/>
+      <c r="C46" s="48"/>
       <c r="D46" s="41">
         <f>$R$45*D14</f>
         <v>0</v>
@@ -2543,10 +2543,10 @@
       </c>
     </row>
     <row r="47" spans="2:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="B47" s="45" t="s">
+      <c r="B47" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="46"/>
+      <c r="C47" s="48"/>
       <c r="D47" s="7" t="e">
         <f>(D46)/(D39+D40)</f>
         <v>#DIV/0!</v>
@@ -2642,10 +2642,10 @@
       <c r="U50" s="29"/>
     </row>
     <row r="51" spans="2:21" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="45" t="s">
+      <c r="B51" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="46"/>
+      <c r="C51" s="48"/>
       <c r="D51" s="43">
         <f>($M$52*D13*12)+($M$53*D11)</f>
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>2100000</v>
       </c>
       <c r="F51" s="43">
-        <f t="shared" ref="E51:G51" si="14">($M$52*F13*12)+($M$53*F11)</f>
+        <f t="shared" ref="F51:G51" si="14">($M$52*F13*12)+($M$53*F11)</f>
         <v>0</v>
       </c>
       <c r="G51" s="43">
@@ -2681,10 +2681,10 @@
       <c r="U51" s="18"/>
     </row>
     <row r="52" spans="2:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="B52" s="45" t="s">
+      <c r="B52" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C52" s="46"/>
+      <c r="C52" s="48"/>
       <c r="D52" s="43" t="e">
         <f>D51/((D13+D11)*0.85)</f>
         <v>#DIV/0!</v>
@@ -2724,10 +2724,10 @@
       <c r="U52" s="18"/>
     </row>
     <row r="53" spans="2:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="C53" s="46"/>
+      <c r="C53" s="48"/>
       <c r="D53" s="43">
         <f>$M$54*D11</f>
         <v>0</v>
@@ -2765,10 +2765,10 @@
       <c r="U53" s="18"/>
     </row>
     <row r="54" spans="2:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="B54" s="45" t="s">
+      <c r="B54" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="C54" s="46"/>
+      <c r="C54" s="48"/>
       <c r="D54" s="43">
         <f>$M$55*D13</f>
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>2850000</v>
       </c>
       <c r="F54" s="43">
-        <f t="shared" ref="E54:G54" si="16">$M$55*F13</f>
+        <f t="shared" ref="F54:G54" si="16">$M$55*F13</f>
         <v>0</v>
       </c>
       <c r="G54" s="43">
@@ -2847,21 +2847,20 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
@@ -2872,20 +2871,21 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="B47:C47"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M36" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
